--- a/Date/Data_Excel.xlsx
+++ b/Date/Data_Excel.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="5715" windowHeight="4440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11730" windowHeight="3615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L10"/>
 </workbook>
 </file>
 
@@ -543,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -671,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
